--- a/Data/wealthiest counties.xlsx
+++ b/Data/wealthiest counties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>County</t>
   </si>
@@ -237,7 +237,7 @@
     <t>Westchester</t>
   </si>
   <si>
-    <t>Goochland</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -698,7 +698,7 @@
         <v>2693</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F52" si="0">(E4/D4)</f>
+        <f t="shared" ref="F4:F51" si="0">(E4/D4)</f>
         <v>0.23488879197557785</v>
       </c>
     </row>
@@ -1693,21 +1693,17 @@
       <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1">
-        <v>79547</v>
-      </c>
       <c r="D52">
-        <v>21136</v>
+        <f>SUM(D2:D51)</f>
+        <v>19693614</v>
       </c>
       <c r="E52">
-        <v>13660</v>
+        <f>SUM(E2:E51)</f>
+        <v>10031154</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="0"/>
-        <v>0.64629068887206664</v>
+        <f>(E52/D52)</f>
+        <v>0.50936075013961379</v>
       </c>
     </row>
   </sheetData>
